--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="811">
   <si>
     <t>Title</t>
   </si>
@@ -2495,6 +2495,27 @@
   </si>
   <si>
     <t>Impediment_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>30376</t>
+  </si>
+  <si>
+    <t>10850</t>
+  </si>
+  <si>
+    <t>80010</t>
+  </si>
+  <si>
+    <t>94303</t>
+  </si>
+  <si>
+    <t>60833</t>
+  </si>
+  <si>
+    <t>42375</t>
+  </si>
+  <si>
+    <t>65221</t>
   </si>
 </sst>
 </file>
@@ -3420,11 +3441,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="false"/>
-    <col min="5" max="16384" style="6" width="8.6640625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3858,12 +3879,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.6640625" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="false"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.33203125" collapsed="false"/>
-    <col min="12" max="16384" style="3" width="9.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6640625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.33203125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -9401,43 +9422,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.44140625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6640625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.33203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" width="8.33203125" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="23.33203125" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="26.33203125" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="17.33203125" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="28.33203125" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.33203125" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="23.6640625" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="17.6640625" collapsed="false"/>
-    <col min="38" max="39" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="38" max="39" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
@@ -9580,7 +9601,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="28" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="816">
   <si>
     <t>Title</t>
   </si>
@@ -2516,6 +2516,21 @@
   </si>
   <si>
     <t>65221</t>
+  </si>
+  <si>
+    <t>72908</t>
+  </si>
+  <si>
+    <t>88880</t>
+  </si>
+  <si>
+    <t>94053</t>
+  </si>
+  <si>
+    <t>29783</t>
+  </si>
+  <si>
+    <t>49540</t>
   </si>
 </sst>
 </file>
@@ -9601,7 +9616,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="28" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="725">
   <si>
     <t>Title</t>
   </si>
@@ -2683,6 +2683,12 @@
   </si>
   <si>
     <t>36429</t>
+  </si>
+  <si>
+    <t>79620</t>
+  </si>
+  <si>
+    <t>91902</t>
   </si>
 </sst>
 </file>
@@ -7864,7 +7870,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="727">
   <si>
     <t>Title</t>
   </si>
@@ -2689,6 +2689,12 @@
   </si>
   <si>
     <t>91902</t>
+  </si>
+  <si>
+    <t>32902</t>
+  </si>
+  <si>
+    <t>72065</t>
   </si>
 </sst>
 </file>
@@ -7870,7 +7876,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="728">
   <si>
     <t>Title</t>
   </si>
@@ -2695,6 +2695,9 @@
   </si>
   <si>
     <t>72065</t>
+  </si>
+  <si>
+    <t>37028</t>
   </si>
 </sst>
 </file>
@@ -7876,7 +7879,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="730">
   <si>
     <t>Title</t>
   </si>
@@ -2698,6 +2698,12 @@
   </si>
   <si>
     <t>37028</t>
+  </si>
+  <si>
+    <t>77452</t>
+  </si>
+  <si>
+    <t>48143</t>
   </si>
 </sst>
 </file>
@@ -7879,7 +7885,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="732">
   <si>
     <t>Title</t>
   </si>
@@ -2704,6 +2704,12 @@
   </si>
   <si>
     <t>48143</t>
+  </si>
+  <si>
+    <t>33631</t>
+  </si>
+  <si>
+    <t>93095</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7891,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="733">
   <si>
     <t>Title</t>
   </si>
@@ -2710,6 +2710,9 @@
   </si>
   <si>
     <t>93095</t>
+  </si>
+  <si>
+    <t>22900</t>
   </si>
 </sst>
 </file>
@@ -7891,7 +7894,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="734">
   <si>
     <t>Title</t>
   </si>
@@ -2713,6 +2713,9 @@
   </si>
   <si>
     <t>22900</t>
+  </si>
+  <si>
+    <t>13403</t>
   </si>
 </sst>
 </file>
@@ -7894,7 +7897,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="739">
   <si>
     <t>Title</t>
   </si>
@@ -2716,6 +2716,21 @@
   </si>
   <si>
     <t>13403</t>
+  </si>
+  <si>
+    <t>40431</t>
+  </si>
+  <si>
+    <t>24450</t>
+  </si>
+  <si>
+    <t>23299</t>
+  </si>
+  <si>
+    <t>50087</t>
+  </si>
+  <si>
+    <t>37806</t>
   </si>
 </sst>
 </file>
@@ -7897,7 +7912,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="740">
   <si>
     <t>Title</t>
   </si>
@@ -2731,6 +2731,9 @@
   </si>
   <si>
     <t>37806</t>
+  </si>
+  <si>
+    <t>11235</t>
   </si>
 </sst>
 </file>
@@ -7912,7 +7915,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="742">
   <si>
     <t>Title</t>
   </si>
@@ -2734,6 +2734,12 @@
   </si>
   <si>
     <t>11235</t>
+  </si>
+  <si>
+    <t>42626</t>
+  </si>
+  <si>
+    <t>29461</t>
   </si>
 </sst>
 </file>
@@ -7915,7 +7921,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="753">
   <si>
     <t>Title</t>
   </si>
@@ -2740,6 +2740,39 @@
   </si>
   <si>
     <t>29461</t>
+  </si>
+  <si>
+    <t>37031</t>
+  </si>
+  <si>
+    <t>48161</t>
+  </si>
+  <si>
+    <t>38833</t>
+  </si>
+  <si>
+    <t>65150</t>
+  </si>
+  <si>
+    <t>79523</t>
+  </si>
+  <si>
+    <t>28236</t>
+  </si>
+  <si>
+    <t>23909</t>
+  </si>
+  <si>
+    <t>99222</t>
+  </si>
+  <si>
+    <t>84815</t>
+  </si>
+  <si>
+    <t>29621</t>
+  </si>
+  <si>
+    <t>91458</t>
   </si>
 </sst>
 </file>
@@ -7921,7 +7954,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="754">
   <si>
     <t>Title</t>
   </si>
@@ -2773,6 +2773,9 @@
   </si>
   <si>
     <t>91458</t>
+  </si>
+  <si>
+    <t>98702</t>
   </si>
 </sst>
 </file>
@@ -7954,7 +7957,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="779">
   <si>
     <t>Title</t>
   </si>
@@ -2776,6 +2776,81 @@
   </si>
   <si>
     <t>98702</t>
+  </si>
+  <si>
+    <t>26623</t>
+  </si>
+  <si>
+    <t>34192</t>
+  </si>
+  <si>
+    <t>41314</t>
+  </si>
+  <si>
+    <t>98481</t>
+  </si>
+  <si>
+    <t>22902</t>
+  </si>
+  <si>
+    <t>43101</t>
+  </si>
+  <si>
+    <t>24296</t>
+  </si>
+  <si>
+    <t>91733</t>
+  </si>
+  <si>
+    <t>32400</t>
+  </si>
+  <si>
+    <t>31553</t>
+  </si>
+  <si>
+    <t>31515</t>
+  </si>
+  <si>
+    <t>46452</t>
+  </si>
+  <si>
+    <t>69084</t>
+  </si>
+  <si>
+    <t>47501</t>
+  </si>
+  <si>
+    <t>40616</t>
+  </si>
+  <si>
+    <t>94933</t>
+  </si>
+  <si>
+    <t>94191</t>
+  </si>
+  <si>
+    <t>48021</t>
+  </si>
+  <si>
+    <t>56668</t>
+  </si>
+  <si>
+    <t>68824</t>
+  </si>
+  <si>
+    <t>85013</t>
+  </si>
+  <si>
+    <t>10921</t>
+  </si>
+  <si>
+    <t>61414</t>
+  </si>
+  <si>
+    <t>15295</t>
+  </si>
+  <si>
+    <t>50102</t>
   </si>
 </sst>
 </file>
@@ -7957,7 +8032,7 @@
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="C2" t="s">
         <v>709</v>
